--- a/px-files/sitemaps/sitemap.xlsx
+++ b/px-files/sitemaps/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuki.shimoyama/Desktop/theme_lessons/px-files/sitemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuki.shimoyama/Desktop/$theme_lessons-master/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E293718E-8627-EA4F-A0A3-97269801F15E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D29D8409-3843-B24B-A606-2B5C35DEE778}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sitemap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -182,27 +182,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>パンくずをPHPに置き換えてみよう！</t>
-    <rPh sb="0" eb="1">
-      <t>オk</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サブメニューをPHPに置き換えてみよう！</t>
-    <rPh sb="0" eb="1">
-      <t>オk</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サイドメニューをPHPに置き換えてみよう！</t>
-    <rPh sb="0" eb="1">
-      <t>オk</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>メガフッターをPHPに置き換えてみよう！</t>
     <rPh sb="0" eb="1">
       <t>メg</t>
@@ -210,13 +189,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>自作の関数を作って表示してみよう！</t>
-    <rPh sb="0" eb="2">
-      <t>ジサk</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>/lesson1/</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -290,18 +262,6 @@
   </si>
   <si>
     <t>/lesson4/chapter2/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>/lesson4/chapter3/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>/lesson4/chapter4/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>/lesson4/chapter5/</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -366,13 +326,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>グロナビをPHPに置き換えてみよう！</t>
-    <rPh sb="0" eb="1">
-      <t>オk</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>popup</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -397,8 +350,30 @@
   </si>
   <si>
     <t>sitemapからページ名&lt;h1&gt;用を出力するには？</t>
-    <rPh sb="482" eb="483">
+    <rPh sb="0" eb="26">
       <t>ヨウニ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ローカルナビをPHPに置き換えてみよう！</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/lesson5/chapter2/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カスタムパンくずを作ってみよう！</t>
+    <rPh sb="0" eb="1">
+      <t>ツクッt</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カスタムグロナビを作ってみよう！</t>
+    <rPh sb="0" eb="1">
+      <t>g</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -466,6 +441,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -587,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -605,10 +581,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -914,13 +891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -980,14 +957,14 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1038,14 +1015,14 @@
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1095,7 +1072,7 @@
     <row r="9" spans="1:22">
       <c r="A9" s="3"/>
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1128,7 +1105,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1139,7 +1116,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3">
@@ -1171,7 +1148,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10">
@@ -1191,7 +1168,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="6"/>
@@ -1201,7 +1178,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3">
@@ -1221,7 +1198,7 @@
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="6"/>
@@ -1231,7 +1208,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3">
@@ -1251,7 +1228,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="6"/>
@@ -1261,7 +1238,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3">
@@ -1280,7 +1257,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1291,7 +1268,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3">
@@ -1323,7 +1300,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10">
@@ -1343,7 +1320,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="6"/>
@@ -1351,9 +1328,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3">
@@ -1373,7 +1350,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="6"/>
@@ -1383,7 +1360,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3">
@@ -1403,7 +1380,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="6"/>
@@ -1413,7 +1390,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3">
@@ -1443,7 +1420,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3">
@@ -1462,7 +1439,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1473,7 +1450,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3">
@@ -1505,7 +1482,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3">
@@ -1535,7 +1512,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3">
@@ -1565,7 +1542,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3">
@@ -1584,7 +1561,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1595,7 +1572,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3">
@@ -1615,11 +1592,11 @@
     <row r="26" spans="1:22">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="3"/>
@@ -1627,7 +1604,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3">
@@ -1647,7 +1624,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="13" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="6"/>
@@ -1657,7 +1634,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3">
@@ -1675,11 +1652,11 @@
     <row r="28" spans="1:22">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="3"/>
@@ -1687,7 +1664,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3">
@@ -1697,7 +1674,9 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -1707,7 +1686,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="13" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="6"/>
@@ -1717,7 +1696,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3">
@@ -1737,7 +1716,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="13" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="6"/>
@@ -1747,7 +1726,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3">
@@ -1766,24 +1745,26 @@
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="14" t="s">
-        <v>58</v>
+      <c r="L31" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3">
         <v>1</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -1797,25 +1778,19 @@
     <row r="32" spans="1:22">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="L32" s="16"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -1827,10 +1802,8 @@
     <row r="33" spans="1:22">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1838,99 +1811,43 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="3">
-        <v>1</v>
-      </c>
+      <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="5" customHeight="1">
-      <c r="A38" s="9" t="s">
+    <row r="36" spans="1:22" ht="5" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1940,7 +1857,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="L33" r:id="rId1" xr:uid="{B0EDB9CF-E733-7547-B059-634C45625892}"/>
+    <hyperlink ref="L31" r:id="rId1" xr:uid="{B0EDB9CF-E733-7547-B059-634C45625892}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
